--- a/Data/PsdrfListes.xlsx
+++ b/Data/PsdrfListes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28440" windowHeight="16840" activeTab="5"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28440" windowHeight="16840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CodeDurete" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="1460">
   <si>
     <t>id</t>
   </si>
@@ -4407,6 +4407,12 @@
   </si>
   <si>
     <t>RB Vallee Jauberton</t>
+  </si>
+  <si>
+    <t>TypeTarifIFN</t>
+  </si>
+  <si>
+    <t>NumTarifIFN</t>
   </si>
 </sst>
 </file>
@@ -4507,7 +4513,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="144">
+  <cellStyleXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4662,6 +4668,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4685,7 +4693,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="137" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="144">
+  <cellStyles count="146">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -4752,6 +4760,7 @@
     <cellStyle name="Lien hypertexte" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="144" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -4818,6 +4827,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="128"/>
@@ -9255,7 +9265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="L1" sqref="L1:S1048576"/>
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
@@ -10931,19 +10941,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1240"/>
+  <dimension ref="A1:F1240"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="3" t="s">
         <v>512</v>
       </c>
@@ -10956,8 +10967,14 @@
       <c r="D1" s="3" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10971,7 +10988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10985,7 +11002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10999,7 +11016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11013,7 +11030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11027,7 +11044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11041,7 +11058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11055,7 +11072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11069,7 +11086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1</v>
       </c>
@@ -11083,7 +11100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11097,7 +11114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11111,7 +11128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11125,7 +11142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11139,7 +11156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11153,7 +11170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1</v>
       </c>
